--- a/similarities/split_global/harmonic_similarity_timestamps_40.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_40.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,362 +484,396 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:12.120000', '0:00:17.320000'), ('0:00:01.540000', '0:00:03.580000')]</t>
+          <t>('0:00:14.080000', '0:00:20.540000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.860000', '0:00:05.140000'), ('0:01:58.180000', '0:02:03.040000')]</t>
+          <t>('0:00:45.580000', '0:00:49.600000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=14.08</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=118.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>schubert-winterreise_28</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+          <t>('0:01:05.440000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:08.413696', '0:00:12.303038')]</t>
+          <t>('0:00:15.300000', '0:00:17.780000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:02.300000', '0:00:07.040000'), ('0:02:09.060000', '0:02:14.200000')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:19.520000'), ('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:01:05.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:min', 'Ab:min']]</t>
+          <t>['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:22.100000', '0:00:29.560000')]</t>
+          <t>('0:00:45.260000', '0:00:57.580000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:08.620975', '0:00:14.367913')]</t>
+          <t>('0:00:02.020000', '0:00:10.620000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=22.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=45.26</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=8.620975']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.02</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
+          <t>['D/3', 'G', 'D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:25.640000', '0:00:55.140000')]</t>
+          <t>('0:00:57.251357', '0:01:13.909779')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:08.540000', '0:00:22.560000')]</t>
+          <t>('0:01:58.400000', '0:02:01.720000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=25.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>isophonics_144</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
+          <t>['A:min', 'E:min', 'A:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['A:min', 'E:min', 'A:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.727609', '0:00:08.204625')]</t>
+          <t>('0:00:28.536000', '0:00:33.834000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:00:03.831000', '0:00:09.282000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-144#t=28.536</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=3.831</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_81</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C', 'A:7', 'D:min7']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F/5', 'D:7', 'G:min7']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:34.810000', '0:01:40.826000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:09.460000', '0:00:12.130000')]</t>
+          <t>('0:00:03.599751', '0:00:06.705328')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=94.81']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-81#t=9.46']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
+          <t>['D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:01.600000', '0:00:11.260000'), ('0:00:31.140000', '0:00:41.420000')]</t>
+          <t>('0:00:12.707687', '0:00:25.501882')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:58.880000', '0:01:01.680000')]</t>
+          <t>('0:02:03.030000', '0:02:09.120000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=31.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -849,177 +883,179 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:09.162102', '0:00:14.073123')]</t>
+          <t>('0:00:37.995918', '0:00:46.610521')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['G/5', 'D', 'G/5', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['D/5', 'A', 'D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:52.200000')]</t>
+          <t>('0:00:21.391000', '0:00:32.032000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:27.963197', '0:00:43.926916')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=21.391</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=27.963197</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:01.680000', '0:00:07.500000')]</t>
+          <t>('0:00:59.220000', '0:01:06.880000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:46.220000', '0:00:48.940000')]</t>
+          <t>('0:00:22.125076', '0:00:36.625937')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=1.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.22']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>isophonics_111</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'F:7']]</t>
+          <t>['C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:11.890000', '0:00:19.531000')]</t>
+          <t>('0:01:10.519024', '0:01:15.720294')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:13.420000', '0:00:21.300000')]</t>
+          <t>('0:00:38.620000', '0:00:44.060000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=11.89']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=70.519024</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=38.62</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1028,46 +1064,48 @@
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:06.427052', '0:01:11.593492')]</t>
+          <t>('0:00:17.680000', '0:00:20.040000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:22.620000')]</t>
+          <t>('0:01:08.800000', '0:01:16.200000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-87#t=66.427052']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=17.68</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=68.8</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1076,94 +1114,104 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'G']]</t>
+          <t>['G:min', 'D:7', 'G:min', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:47.187000', '0:00:57.707000')]</t>
+          <t>('0:00:00.660000', '0:00:03.280000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:14.199024', '0:00:21.339160')]</t>
+          <t>('0:00:48.800000', '0:01:00.040000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=14.199024']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=48.8</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:08.340000', '0:01:24.380000')]</t>
+          <t>('0:00:22.020589', '0:00:24.598004')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:04.340000', '0:00:17.660000')]</t>
+          <t>('0:01:14.879000', '0:01:25.949000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=68.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=4.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
